--- a/User_Data/Watchlists/aus_econ/aus_econ.xlsx
+++ b/User_Data/Watchlists/aus_econ/aus_econ.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1820,6 +1820,50 @@
         </is>
       </c>
       <c r="D63" t="inlineStr">
+        <is>
+          <t>abs_series</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>A2603039T</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>A2603039T</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Quarterly Index ;  Total hourly rates of pay excluding bonuses ;  Australia ;  Private ;  All industries ;</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>abs_series</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>A2603989W</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>A2603989W</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Quarterly Index ;  Total hourly rates of pay excluding bonuses ;  Australia ;  Public ;  All industries ;</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>abs_series</t>
         </is>
@@ -1836,7 +1880,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE19"/>
+  <dimension ref="A1:CG19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2255,6 +2299,16 @@
           <t>australia/private-debt-to-gdp</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>A2603039T</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>A2603989W</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2648,6 +2702,16 @@
         </is>
       </c>
       <c r="CE2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="CF2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="CG2" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -2977,6 +3041,8 @@
       <c r="CC3" t="inlineStr"/>
       <c r="CD3" t="inlineStr"/>
       <c r="CE3" t="inlineStr"/>
+      <c r="CF3" t="inlineStr"/>
+      <c r="CG3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3298,6 +3364,8 @@
       <c r="CC4" t="inlineStr"/>
       <c r="CD4" t="inlineStr"/>
       <c r="CE4" t="inlineStr"/>
+      <c r="CF4" t="inlineStr"/>
+      <c r="CG4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3691,6 +3759,16 @@
         </is>
       </c>
       <c r="CE5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="CF5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="CG5" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -4024,6 +4102,8 @@
       <c r="CC6" t="inlineStr"/>
       <c r="CD6" t="inlineStr"/>
       <c r="CE6" t="inlineStr"/>
+      <c r="CF6" t="inlineStr"/>
+      <c r="CG6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -4117,6 +4197,8 @@
       <c r="CC7" t="inlineStr"/>
       <c r="CD7" t="inlineStr"/>
       <c r="CE7" t="inlineStr"/>
+      <c r="CF7" t="inlineStr"/>
+      <c r="CG7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -4532,6 +4614,16 @@
       <c r="CE8" t="inlineStr">
         <is>
           <t>tedata</t>
+        </is>
+      </c>
+      <c r="CF8" t="inlineStr">
+        <is>
+          <t>abs_series</t>
+        </is>
+      </c>
+      <c r="CG8" t="inlineStr">
+        <is>
+          <t>abs_series</t>
         </is>
       </c>
     </row>
@@ -4631,6 +4723,8 @@
       <c r="CC9" t="inlineStr"/>
       <c r="CD9" t="inlineStr"/>
       <c r="CE9" t="inlineStr"/>
+      <c r="CF9" t="inlineStr"/>
+      <c r="CG9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -4840,6 +4934,8 @@
       <c r="CC10" t="inlineStr"/>
       <c r="CD10" t="inlineStr"/>
       <c r="CE10" t="inlineStr"/>
+      <c r="CF10" t="inlineStr"/>
+      <c r="CG10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5047,6 +5143,8 @@
       <c r="CC11" t="inlineStr"/>
       <c r="CD11" t="inlineStr"/>
       <c r="CE11" t="inlineStr"/>
+      <c r="CF11" t="inlineStr"/>
+      <c r="CG11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -5138,6 +5236,8 @@
       <c r="CC12" t="inlineStr"/>
       <c r="CD12" t="inlineStr"/>
       <c r="CE12" t="inlineStr"/>
+      <c r="CF12" t="inlineStr"/>
+      <c r="CG12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -5347,6 +5447,8 @@
       <c r="CC13" t="inlineStr"/>
       <c r="CD13" t="inlineStr"/>
       <c r="CE13" t="inlineStr"/>
+      <c r="CF13" t="inlineStr"/>
+      <c r="CG13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -5556,6 +5658,8 @@
       <c r="CC14" t="inlineStr"/>
       <c r="CD14" t="inlineStr"/>
       <c r="CE14" t="inlineStr"/>
+      <c r="CF14" t="inlineStr"/>
+      <c r="CG14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -5765,6 +5869,8 @@
       <c r="CC15" t="inlineStr"/>
       <c r="CD15" t="inlineStr"/>
       <c r="CE15" t="inlineStr"/>
+      <c r="CF15" t="inlineStr"/>
+      <c r="CG15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -5854,6 +5960,8 @@
       <c r="CC16" t="inlineStr"/>
       <c r="CD16" t="inlineStr"/>
       <c r="CE16" t="inlineStr"/>
+      <c r="CF16" t="inlineStr"/>
+      <c r="CG16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -6271,6 +6379,16 @@
           <t>australia/private-debt-to-gdp</t>
         </is>
       </c>
+      <c r="CF17" t="inlineStr">
+        <is>
+          <t>A2603039T</t>
+        </is>
+      </c>
+      <c r="CG17" t="inlineStr">
+        <is>
+          <t>A2603989W</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -6686,6 +6804,16 @@
       <c r="CE18" t="inlineStr">
         <is>
           <t>australia/private-debt-to-gdp</t>
+        </is>
+      </c>
+      <c r="CF18" t="inlineStr">
+        <is>
+          <t>A2603039T</t>
+        </is>
+      </c>
+      <c r="CG18" t="inlineStr">
+        <is>
+          <t>A2603989W</t>
         </is>
       </c>
     </row>
@@ -6777,6 +6905,8 @@
       <c r="CC19" t="inlineStr"/>
       <c r="CD19" t="inlineStr"/>
       <c r="CE19" t="inlineStr"/>
+      <c r="CF19" t="inlineStr"/>
+      <c r="CG19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/User_Data/Watchlists/aus_econ/aus_econ.xlsx
+++ b/User_Data/Watchlists/aus_econ/aus_econ.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,61 +464,61 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>GLFSEPTPOP</t>
+          <t>A2325941A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GLFSEPTPOP</t>
+          <t>A2325941A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Employment to population ratio</t>
+          <t>Index Numbers ;  Housing ;  Sydney ;</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>rba_series</t>
+          <t>abs_series</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>australia/population</t>
+          <t>A2326391L</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>australia/population</t>
+          <t>A2326391L</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Australia Population</t>
+          <t>Index Numbers ;  Rents ;  Sydney ;1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>tedata</t>
+          <t>abs_series</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>A2325941A</t>
+          <t>A2329946K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A2325941A</t>
+          <t>A2329946K</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Index Numbers ;  Housing ;  Sydney ;</t>
+          <t>Index Numbers ;  Property rates and charges ;  Sydney ;</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -530,17 +530,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>A2326391L</t>
+          <t>A2326481T</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A2326391L</t>
+          <t>A2326481T</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Index Numbers ;  Rents ;  Sydney ;1</t>
+          <t>Index Numbers ;  Utilities ;  Sydney ;</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -552,17 +552,17 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>A2329946K</t>
+          <t>A2329856F</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A2329946K</t>
+          <t>A2329856F</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Index Numbers ;  Property rates and charges ;  Sydney ;</t>
+          <t>Index Numbers ;  Water and sewerage ;  Sydney ;</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -574,17 +574,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>A2326481T</t>
+          <t>A2328101R</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A2326481T</t>
+          <t>A2328101R</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Index Numbers ;  Utilities ;  Sydney ;</t>
+          <t>Index Numbers ;  Electricity ;  Sydney ;</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -596,17 +596,17 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>A2329856F</t>
+          <t>A2331566X</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A2329856F</t>
+          <t>A2331566X</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Index Numbers ;  Water and sewerage ;  Sydney ;</t>
+          <t>Index Numbers ;  Child care ;  Sydney ;</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -618,17 +618,17 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>A2328101R</t>
+          <t>A2331071W</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A2328101R</t>
+          <t>A2331071W</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Index Numbers ;  Electricity ;  Sydney ;</t>
+          <t>Index Numbers ;  Health ;  Sydney ;</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -640,17 +640,17 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>A2331566X</t>
+          <t>A2331386R</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>A2331566X</t>
+          <t>A2331386R</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Index Numbers ;  Child care ;  Sydney ;</t>
+          <t>Index Numbers ;  Education ;  Sydney ;</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -662,17 +662,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>A2331071W</t>
+          <t>A2329406W</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A2331071W</t>
+          <t>A2329406W</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Index Numbers ;  Health ;  Sydney ;</t>
+          <t>Index Numbers ;  Education ;  Sydney ;1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -684,17 +684,17 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>A2331386R</t>
+          <t>A3602793W</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>A2331386R</t>
+          <t>A3602793W</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Index Numbers ;  Education ;  Sydney ;</t>
+          <t>Index Numbers ;  Insurance ;  Sydney ;</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -706,17 +706,17 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>A2329406W</t>
+          <t>A3602838R</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>A2329406W</t>
+          <t>A3602838R</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Index Numbers ;  Education ;  Sydney ;1</t>
+          <t>Index Numbers ;  Insurance ;  Sydney ;1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -728,17 +728,17 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>A3602793W</t>
+          <t>A2330531F</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A3602793W</t>
+          <t>A2330531F</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Index Numbers ;  Insurance ;  Sydney ;</t>
+          <t>Index Numbers ;  Non-tradables ;  Sydney ;</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -750,17 +750,17 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>A3602838R</t>
+          <t>A2330576K</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A3602838R</t>
+          <t>A2330576K</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Index Numbers ;  Insurance ;  Sydney ;1</t>
+          <t>Index Numbers ;  All groups, goods component ;  Sydney ;</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -772,17 +772,17 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>A2330531F</t>
+          <t>A2325896A</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>A2330531F</t>
+          <t>A2325896A</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Index Numbers ;  Non-tradables ;  Sydney ;</t>
+          <t>Index Numbers ;  Clothing and footwear ;  Sydney ;</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,17 +794,17 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>A2330576K</t>
+          <t>A2325806K</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>A2330576K</t>
+          <t>A2325806K</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Index Numbers ;  All groups, goods component ;  Sydney ;</t>
+          <t>Index Numbers ;  All groups CPI ;  Sydney ;</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -816,17 +816,17 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>A2325896A</t>
+          <t>A2301346L</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>A2325896A</t>
+          <t>A2301346L</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Index Numbers ;  Clothing and footwear ;  Sydney ;</t>
+          <t>General government - National ;  Final consumption expenditure: Chain volume measures ;</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -838,17 +838,17 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>A2325806K</t>
+          <t>A2304512L</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>A2325806K</t>
+          <t>A2304512L</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Index Numbers ;  All groups CPI ;  Sydney ;</t>
+          <t>Private ;  Final demand: Chain volume measures ;</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -860,17 +860,17 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>A2301346L</t>
+          <t>A2301351F</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>A2301346L</t>
+          <t>A2301351F</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>General government - National ;  Final consumption expenditure: Chain volume measures ;</t>
+          <t>General government - National ;  Gross fixed capital formation: Chain volume measures ;</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -882,17 +882,17 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>A2304512L</t>
+          <t>A2325811C</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>A2304512L</t>
+          <t>A2325811C</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Private ;  Final demand: Chain volume measures ;</t>
+          <t>Index Numbers ;  All groups CPI ;  Melbourne ;</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -904,17 +904,17 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>A2301351F</t>
+          <t>A2304336L</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>A2301351F</t>
+          <t>A2304336L</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>General government - National ;  Gross fixed capital formation: Chain volume measures ;</t>
+          <t>GDP per capita: Chain volume measures ;</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -926,17 +926,17 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>A2325811C</t>
+          <t>A3606046R</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>A2325811C</t>
+          <t>A3606046R</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Index Numbers ;  All groups CPI ;  Melbourne ;</t>
+          <t>Gross value added market sector: Chain volume measures ;</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -948,17 +948,17 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>A2133244X</t>
+          <t>A130272195C</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>A2133244X</t>
+          <t>A130272195C</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Births ;  Australia ;</t>
+          <t>Error_A130272195C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -970,17 +970,17 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>A2133245A</t>
+          <t>A2304340C</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>A2133245A</t>
+          <t>A2304340C</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Deaths ;  Australia ;</t>
+          <t>Net domestic product: Chain volume measures ;</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -992,17 +992,17 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>A2133252X</t>
+          <t>A2304342J</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>A2133252X</t>
+          <t>A2304342J</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Natural Increase ;  Australia ;</t>
+          <t>Real gross domestic income: Chain volume measures ;</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1014,17 +1014,17 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>A2133246C</t>
+          <t>A2304344L</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>A2133246C</t>
+          <t>A2304344L</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Interstate Arrivals ;  Australia ;</t>
+          <t>Real gross national income: Chain volume measures ;</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1036,17 +1036,17 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>A2133247F</t>
+          <t>A2304346T</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>A2133247F</t>
+          <t>A2304346T</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Interstate Departures ;  Australia ;</t>
+          <t>Real net national disposable income: Chain volume measures ;</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1058,17 +1058,17 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>A2133248J</t>
+          <t>A2304348W</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>A2133248J</t>
+          <t>A2304348W</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Overseas Arrivals ;  Australia ;</t>
+          <t>Real net national disposable income per capita: Chain volume measures ;</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1080,17 +1080,17 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>A2133249K</t>
+          <t>A2304356W</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>A2133249K</t>
+          <t>A2304356W</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Overseas Departures ;  Australia ;</t>
+          <t>Net saving: Current prices ;</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1102,17 +1102,17 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>A2133253A</t>
+          <t>A2323384K</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>A2133253A</t>
+          <t>A2323384K</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Net Permanent and Long Term Movement ;  Australia ;</t>
+          <t>Household saving ratio: Ratio ;</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1124,17 +1124,17 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>A2133250V</t>
+          <t>A2304360L</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>A2133250V</t>
+          <t>A2304360L</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Migration Adjustment ;  Australia ;</t>
+          <t>Hours worked: Index ;</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1146,17 +1146,17 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>A2133254C</t>
+          <t>A2304362T</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>A2133254C</t>
+          <t>A2304362T</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Net Overseas Migration ;  Australia ;</t>
+          <t>Hours worked market sector: Index ;</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1168,17 +1168,17 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>A2133251W</t>
+          <t>A130272197J</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>A2133251W</t>
+          <t>A130272197J</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Estimated Resident Population (ERP) ;  Australia ;</t>
+          <t>Error_A130272197J</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1190,17 +1190,17 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>A2133255F</t>
+          <t>A2304364W</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>A2133255F</t>
+          <t>A2304364W</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ERP Change Over Previous Year ;  Australia ;</t>
+          <t>GDP per hour worked: Index ;</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1212,17 +1212,17 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>A2133256J</t>
+          <t>A3606050F</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>A2133256J</t>
+          <t>A3606050F</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Percentage ERP Change Over Previous Year ;  Australia ;</t>
+          <t>Gross value added per hour worked market sector: Index ;</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1234,17 +1234,17 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>A2304336L</t>
+          <t>A130272199L</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>A2304336L</t>
+          <t>A130272199L</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>GDP per capita: Chain volume measures ;</t>
+          <t>Error_A130272199L</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1256,17 +1256,17 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>A3606046R</t>
+          <t>A2302479K</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>A3606046R</t>
+          <t>A2302479K</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Gross value added market sector: Chain volume measures ;</t>
+          <t>General government - National ;  Final consumption expenditure - Defence ;2</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1278,17 +1278,17 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>A130272195C</t>
+          <t>A2302480V</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>A130272195C</t>
+          <t>A2302480V</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Error_A130272195C</t>
+          <t>General government - National ;  Final consumption expenditure - Non-defence ;2</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1300,17 +1300,17 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>A2304340C</t>
+          <t>A2302481W</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>A2304340C</t>
+          <t>A2302481W</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Net domestic product: Chain volume measures ;</t>
+          <t>General government - National ;  Final consumption expenditure ;2</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1322,17 +1322,17 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>A2304342J</t>
+          <t>A2302482X</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>A2304342J</t>
+          <t>A2302482X</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Real gross domestic income: Chain volume measures ;</t>
+          <t>General government - State and local ;  Final consumption expenditure ;2</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1344,17 +1344,17 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>A2304344L</t>
+          <t>A2302483A</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>A2304344L</t>
+          <t>A2302483A</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Real gross national income: Chain volume measures ;</t>
+          <t>General government ;  Final consumption expenditure ;2</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1366,17 +1366,17 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>A2304346T</t>
+          <t>A2302484C</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>A2304346T</t>
+          <t>A2302484C</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Real net national disposable income: Chain volume measures ;</t>
+          <t>Households ;  Final consumption expenditure ;2</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1388,17 +1388,17 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>A2304348W</t>
+          <t>A2302485F</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>A2304348W</t>
+          <t>A2302485F</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Real net national disposable income per capita: Chain volume measures ;</t>
+          <t>All sectors ;  Final consumption expenditure ;2</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1410,17 +1410,17 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>A2304356W</t>
+          <t>A2302503X</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>A2304356W</t>
+          <t>A2302503X</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Net saving: Current prices ;</t>
+          <t>Private ;  Gross fixed capital formation ;2</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1432,17 +1432,17 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>A2323384K</t>
+          <t>A2302511X</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>A2323384K</t>
+          <t>A2302511X</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Household saving ratio: Ratio ;</t>
+          <t>General government ;  Gross fixed capital formation ;2</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1454,17 +1454,17 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>A2304360L</t>
+          <t>A2302512A</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>A2304360L</t>
+          <t>A2302512A</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Hours worked: Index ;</t>
+          <t>Public ;  Gross fixed capital formation ;2</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1476,17 +1476,17 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>A2304362T</t>
+          <t>A2302513C</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>A2304362T</t>
+          <t>A2302513C</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Hours worked market sector: Index ;</t>
+          <t>All sectors ;  Gross fixed capital formation ;2</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1498,17 +1498,17 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>A130272197J</t>
+          <t>A2302514F</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>A130272197J</t>
+          <t>A2302514F</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Error_A130272197J</t>
+          <t>Domestic final demand ;2</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1520,17 +1520,17 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>A2304364W</t>
+          <t>A2325846C</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>A2304364W</t>
+          <t>A2325846C</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>GDP per hour worked: Index ;</t>
+          <t>Index Numbers ;  All groups CPI ;  Australia ;</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1542,17 +1542,17 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>A3606050F</t>
+          <t>A2330616T</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>A3606050F</t>
+          <t>A2330616T</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Gross value added per hour worked market sector: Index ;</t>
+          <t>Index Numbers ;  All groups, goods component ;  Australia ;</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1564,17 +1564,17 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>A130272199L</t>
+          <t>A2330706W</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>A130272199L</t>
+          <t>A2330706W</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Error_A130272199L</t>
+          <t>Index Numbers ;  All groups, services component ;  Australia ;</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1586,17 +1586,17 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>A2302479K</t>
+          <t>A2332236A</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>A2302479K</t>
+          <t>A2332236A</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>General government - National ;  Final consumption expenditure - Defence ;2</t>
+          <t>Index Numbers ;  All groups CPI excluding Housing ;  Australia ;</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1608,17 +1608,17 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>A2302480V</t>
+          <t>A128478317T</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>A2302480V</t>
+          <t>A128478317T</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>General government - National ;  Final consumption expenditure - Non-defence ;2</t>
+          <t>Index Numbers ;  All groups CPI ;  Australia ;</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1630,61 +1630,61 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>A2302481W</t>
+          <t>australia/government-debt-to-gdp</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>A2302481W</t>
+          <t>australia/government-debt-to-gdp</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>General government - National ;  Final consumption expenditure ;2</t>
+          <t>Australia Government Net Debt to GDP</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>abs_series</t>
+          <t>tedata</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>A2302482X</t>
+          <t>australia/private-debt-to-gdp</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>A2302482X</t>
+          <t>australia/private-debt-to-gdp</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>General government - State and local ;  Final consumption expenditure ;2</t>
+          <t>Australia Private Debt to GDP</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>abs_series</t>
+          <t>tedata</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>A2302483A</t>
+          <t>A2302467A</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>A2302483A</t>
+          <t>A2302467A</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>General government ;  Final consumption expenditure ;2</t>
+          <t>Gross domestic product: Current prices ;2</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1696,17 +1696,17 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>A2302484C</t>
+          <t>A2302468C</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>A2302484C</t>
+          <t>A2302468C</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Households ;  Final consumption expenditure ;2</t>
+          <t>GDP per capita: Current prices ;2</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1718,17 +1718,17 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>A2302485F</t>
+          <t>A2302469F</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>A2302485F</t>
+          <t>A2302469F</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>All sectors ;  Final consumption expenditure ;2</t>
+          <t>Gross national income: Current prices ;2</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1740,17 +1740,17 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>A2302503X</t>
+          <t>A2302476C</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>A2302503X</t>
+          <t>A2302476C</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Private ;  Gross fixed capital formation ;2</t>
+          <t>Gross domestic product: Index ;1</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1762,17 +1762,17 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>A2302511X</t>
+          <t>A2302477F</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>A2302511X</t>
+          <t>A2302477F</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>General government ;  Gross fixed capital formation ;2</t>
+          <t>Domestic final demand: Index ;1</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1784,548 +1784,20 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>A2302512A</t>
+          <t>A2302478J</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>A2302512A</t>
+          <t>A2302478J</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Public ;  Gross fixed capital formation ;2</t>
+          <t>Terms of trade: Index ;2</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
-        <is>
-          <t>abs_series</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>A2302513C</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>A2302513C</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>All sectors ;  Gross fixed capital formation ;2</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>abs_series</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>A2302514F</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>A2302514F</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Domestic final demand ;2</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>abs_series</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>A2325846C</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>A2325846C</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Index Numbers ;  All groups CPI ;  Australia ;</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>abs_series</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>A2330616T</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>A2330616T</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Index Numbers ;  All groups, goods component ;  Australia ;</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>abs_series</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>A2330706W</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>A2330706W</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Index Numbers ;  All groups, services component ;  Australia ;</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>abs_series</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>A2332236A</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>A2332236A</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Index Numbers ;  All groups CPI excluding Housing ;  Australia ;</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>abs_series</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>A128478317T</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>A128478317T</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Index Numbers ;  All groups CPI ;  Australia ;</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>abs_series</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>australia/government-debt-to-gdp</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>australia/government-debt-to-gdp</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Australia Government Net Debt to GDP</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>tedata</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>australia/private-debt-to-gdp</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>australia/private-debt-to-gdp</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Error_australia/private-debt-to-gdp</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>tedata</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>A2302467A</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>A2302467A</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Gross domestic product: Current prices ;2</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>abs_series</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>A2302468C</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>A2302468C</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>GDP per capita: Current prices ;2</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>abs_series</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>A2302469F</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>A2302469F</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Gross national income: Current prices ;2</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>abs_series</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>A2302476C</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>A2302476C</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Gross domestic product: Index ;1</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>abs_series</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>A2302477F</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>A2302477F</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Domestic final demand: Index ;1</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>abs_series</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>A2302478J</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>A2302478J</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Terms of trade: Index ;2</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>abs_series</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>A85232567K</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>A85232567K</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Number of movements ;  Permanent Arrivals ;</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>abs_series</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>A85232568L</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>A85232568L</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Number of movements ;  Permanent and Long-term Arrivals ;</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>abs_series</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>A85232561W</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>A85232561W</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Number of movements ;  Total Arrivals ;</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>abs_series</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>A2060784V</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>A2060784V</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Natural Increase ;  Australia ;</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>abs_series</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>A2060785W</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>A2060785W</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Net Overseas Migration ;  Australia ;</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>abs_series</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>A85232566J</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>A85232566J</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Number of movements ;  Permanent Departures ;</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>abs_series</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>A85232570X</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>A85232570X</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Number of movements ;  Total Departures ;</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>abs_series</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>A2603609J</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>A2603609J</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Quarterly Index ;  Total hourly rates of pay excluding bonuses ;  Australia ;  Private and Public ;  All industries ;</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>abs_series</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>A2603610T</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>A2603610T</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Percentage Change from Previous Quarter ;  Total hourly rates of pay excluding bonuses ;  Australia ;  Private and Public ;  All industries ;</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
         <is>
           <t>abs_series</t>
         </is>
@@ -2342,7 +1814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CD19"/>
+  <dimension ref="A1:CE19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2756,6 +2228,11 @@
           <t>A2603610T</t>
         </is>
       </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>australia/private-debt-to-gdp</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3144,6 +2621,11 @@
         </is>
       </c>
       <c r="CD2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="CE2" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -3472,6 +2954,7 @@
       <c r="CB3" t="inlineStr"/>
       <c r="CC3" t="inlineStr"/>
       <c r="CD3" t="inlineStr"/>
+      <c r="CE3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3792,6 +3275,7 @@
       <c r="CB4" t="inlineStr"/>
       <c r="CC4" t="inlineStr"/>
       <c r="CD4" t="inlineStr"/>
+      <c r="CE4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -4180,6 +3664,11 @@
         </is>
       </c>
       <c r="CD5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="CE5" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -4512,6 +4001,7 @@
       <c r="CB6" t="inlineStr"/>
       <c r="CC6" t="inlineStr"/>
       <c r="CD6" t="inlineStr"/>
+      <c r="CE6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -4604,6 +4094,7 @@
       <c r="CB7" t="inlineStr"/>
       <c r="CC7" t="inlineStr"/>
       <c r="CD7" t="inlineStr"/>
+      <c r="CE7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -5014,6 +4505,11 @@
       <c r="CD8" t="inlineStr">
         <is>
           <t>abs_series</t>
+        </is>
+      </c>
+      <c r="CE8" t="inlineStr">
+        <is>
+          <t>tedata</t>
         </is>
       </c>
     </row>
@@ -5112,6 +4608,7 @@
       <c r="CB9" t="inlineStr"/>
       <c r="CC9" t="inlineStr"/>
       <c r="CD9" t="inlineStr"/>
+      <c r="CE9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -5320,6 +4817,7 @@
       <c r="CB10" t="inlineStr"/>
       <c r="CC10" t="inlineStr"/>
       <c r="CD10" t="inlineStr"/>
+      <c r="CE10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5526,6 +5024,7 @@
       <c r="CB11" t="inlineStr"/>
       <c r="CC11" t="inlineStr"/>
       <c r="CD11" t="inlineStr"/>
+      <c r="CE11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -5616,6 +5115,7 @@
       <c r="CB12" t="inlineStr"/>
       <c r="CC12" t="inlineStr"/>
       <c r="CD12" t="inlineStr"/>
+      <c r="CE12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -5824,6 +5324,7 @@
       <c r="CB13" t="inlineStr"/>
       <c r="CC13" t="inlineStr"/>
       <c r="CD13" t="inlineStr"/>
+      <c r="CE13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -6032,6 +5533,7 @@
       <c r="CB14" t="inlineStr"/>
       <c r="CC14" t="inlineStr"/>
       <c r="CD14" t="inlineStr"/>
+      <c r="CE14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -6240,6 +5742,7 @@
       <c r="CB15" t="inlineStr"/>
       <c r="CC15" t="inlineStr"/>
       <c r="CD15" t="inlineStr"/>
+      <c r="CE15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -6328,6 +5831,7 @@
       <c r="CB16" t="inlineStr"/>
       <c r="CC16" t="inlineStr"/>
       <c r="CD16" t="inlineStr"/>
+      <c r="CE16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -6740,6 +6244,11 @@
           <t>A2603610T</t>
         </is>
       </c>
+      <c r="CE17" t="inlineStr">
+        <is>
+          <t>australia/private-debt-to-gdp</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -7150,6 +6659,11 @@
       <c r="CD18" t="inlineStr">
         <is>
           <t>A2603610T</t>
+        </is>
+      </c>
+      <c r="CE18" t="inlineStr">
+        <is>
+          <t>australia/private-debt-to-gdp</t>
         </is>
       </c>
     </row>
@@ -7240,6 +6754,7 @@
       <c r="CB19" t="inlineStr"/>
       <c r="CC19" t="inlineStr"/>
       <c r="CD19" t="inlineStr"/>
+      <c r="CE19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/User_Data/Watchlists/aus_econ/aus_econ.xlsx
+++ b/User_Data/Watchlists/aus_econ/aus_econ.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1798,6 +1798,28 @@
         </is>
       </c>
       <c r="D62" t="inlineStr">
+        <is>
+          <t>abs_series</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>A2603609J</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>A2603609J</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Quarterly Index ;  Total hourly rates of pay excluding bonuses ;  Australia ;  Private and Public ;  All industries ;</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>abs_series</t>
         </is>

--- a/User_Data/Watchlists/aus_econ/aus_econ.xlsx
+++ b/User_Data/Watchlists/aus_econ/aus_econ.xlsx
@@ -474,7 +474,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Index Numbers ;  Housing ;  Sydney ;</t>
+          <t>Error_A2325941A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Index Numbers ;  Rents ;  Sydney ;1</t>
+          <t>Error_A2326391L</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -518,7 +518,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Index Numbers ;  Property rates and charges ;  Sydney ;</t>
+          <t>Error_A2329946K</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -540,7 +540,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Index Numbers ;  Utilities ;  Sydney ;</t>
+          <t>Error_A2326481T</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -562,7 +562,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Index Numbers ;  Water and sewerage ;  Sydney ;</t>
+          <t>Error_A2329856F</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -584,7 +584,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Index Numbers ;  Electricity ;  Sydney ;</t>
+          <t>Error_A2328101R</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Index Numbers ;  Child care ;  Sydney ;</t>
+          <t>Error_A2331566X</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Index Numbers ;  Health ;  Sydney ;</t>
+          <t>Error_A2331071W</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Index Numbers ;  Education ;  Sydney ;</t>
+          <t>Error_A2331386R</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Index Numbers ;  Education ;  Sydney ;1</t>
+          <t>Error_A2329406W</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Index Numbers ;  Insurance ;  Sydney ;</t>
+          <t>Error_A3602793W</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Index Numbers ;  Insurance ;  Sydney ;1</t>
+          <t>Error_A3602838R</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -738,7 +738,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Index Numbers ;  Non-tradables ;  Sydney ;</t>
+          <t>Error_A2330531F</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Index Numbers ;  All groups, goods component ;  Sydney ;</t>
+          <t>Error_A2330576K</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Index Numbers ;  Clothing and footwear ;  Sydney ;</t>
+          <t>Error_A2325896A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Index Numbers ;  All groups CPI ;  Sydney ;</t>
+          <t>Error_A2325806K</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Index Numbers ;  All groups CPI ;  Melbourne ;</t>
+          <t>Error_A2325811C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -958,7 +958,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Error_A130272195C</t>
+          <t>Gross value added non-market sector: Chain volume measures ;</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Error_A130272197J</t>
+          <t>Hours worked non-market sector: Index ;</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Error_A130272199L</t>
+          <t>Gross value added per hour worked non-market sector: Index ;</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Index Numbers ;  All groups CPI ;  Australia ;</t>
+          <t>Error_A2325846C</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Index Numbers ;  All groups, goods component ;  Australia ;</t>
+          <t>Error_A2330616T</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Index Numbers ;  All groups, services component ;  Australia ;</t>
+          <t>Error_A2330706W</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Index Numbers ;  All groups CPI excluding Housing ;  Australia ;</t>
+          <t>Error_A2332236A</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1880,7 +1880,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CG19"/>
+  <dimension ref="A1:CJ19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2309,6 +2309,21 @@
           <t>A2603989W</t>
         </is>
       </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>A130272195C</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>A130272197J</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>A130272199L</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2712,6 +2727,21 @@
         </is>
       </c>
       <c r="CG2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="CH2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="CI2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="CJ2" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -3043,6 +3073,9 @@
       <c r="CE3" t="inlineStr"/>
       <c r="CF3" t="inlineStr"/>
       <c r="CG3" t="inlineStr"/>
+      <c r="CH3" t="inlineStr"/>
+      <c r="CI3" t="inlineStr"/>
+      <c r="CJ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3366,6 +3399,9 @@
       <c r="CE4" t="inlineStr"/>
       <c r="CF4" t="inlineStr"/>
       <c r="CG4" t="inlineStr"/>
+      <c r="CH4" t="inlineStr"/>
+      <c r="CI4" t="inlineStr"/>
+      <c r="CJ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3769,6 +3805,21 @@
         </is>
       </c>
       <c r="CG5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="CH5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="CI5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="CJ5" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -4104,6 +4155,9 @@
       <c r="CE6" t="inlineStr"/>
       <c r="CF6" t="inlineStr"/>
       <c r="CG6" t="inlineStr"/>
+      <c r="CH6" t="inlineStr"/>
+      <c r="CI6" t="inlineStr"/>
+      <c r="CJ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -4199,6 +4253,9 @@
       <c r="CE7" t="inlineStr"/>
       <c r="CF7" t="inlineStr"/>
       <c r="CG7" t="inlineStr"/>
+      <c r="CH7" t="inlineStr"/>
+      <c r="CI7" t="inlineStr"/>
+      <c r="CJ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -4622,6 +4679,21 @@
         </is>
       </c>
       <c r="CG8" t="inlineStr">
+        <is>
+          <t>abs_series</t>
+        </is>
+      </c>
+      <c r="CH8" t="inlineStr">
+        <is>
+          <t>abs_series</t>
+        </is>
+      </c>
+      <c r="CI8" t="inlineStr">
+        <is>
+          <t>abs_series</t>
+        </is>
+      </c>
+      <c r="CJ8" t="inlineStr">
         <is>
           <t>abs_series</t>
         </is>
@@ -4725,6 +4797,9 @@
       <c r="CE9" t="inlineStr"/>
       <c r="CF9" t="inlineStr"/>
       <c r="CG9" t="inlineStr"/>
+      <c r="CH9" t="inlineStr"/>
+      <c r="CI9" t="inlineStr"/>
+      <c r="CJ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -4936,6 +5011,9 @@
       <c r="CE10" t="inlineStr"/>
       <c r="CF10" t="inlineStr"/>
       <c r="CG10" t="inlineStr"/>
+      <c r="CH10" t="inlineStr"/>
+      <c r="CI10" t="inlineStr"/>
+      <c r="CJ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5145,6 +5223,9 @@
       <c r="CE11" t="inlineStr"/>
       <c r="CF11" t="inlineStr"/>
       <c r="CG11" t="inlineStr"/>
+      <c r="CH11" t="inlineStr"/>
+      <c r="CI11" t="inlineStr"/>
+      <c r="CJ11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -5238,6 +5319,9 @@
       <c r="CE12" t="inlineStr"/>
       <c r="CF12" t="inlineStr"/>
       <c r="CG12" t="inlineStr"/>
+      <c r="CH12" t="inlineStr"/>
+      <c r="CI12" t="inlineStr"/>
+      <c r="CJ12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -5449,6 +5533,9 @@
       <c r="CE13" t="inlineStr"/>
       <c r="CF13" t="inlineStr"/>
       <c r="CG13" t="inlineStr"/>
+      <c r="CH13" t="inlineStr"/>
+      <c r="CI13" t="inlineStr"/>
+      <c r="CJ13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -5660,6 +5747,9 @@
       <c r="CE14" t="inlineStr"/>
       <c r="CF14" t="inlineStr"/>
       <c r="CG14" t="inlineStr"/>
+      <c r="CH14" t="inlineStr"/>
+      <c r="CI14" t="inlineStr"/>
+      <c r="CJ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -5871,6 +5961,9 @@
       <c r="CE15" t="inlineStr"/>
       <c r="CF15" t="inlineStr"/>
       <c r="CG15" t="inlineStr"/>
+      <c r="CH15" t="inlineStr"/>
+      <c r="CI15" t="inlineStr"/>
+      <c r="CJ15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -5962,6 +6055,9 @@
       <c r="CE16" t="inlineStr"/>
       <c r="CF16" t="inlineStr"/>
       <c r="CG16" t="inlineStr"/>
+      <c r="CH16" t="inlineStr"/>
+      <c r="CI16" t="inlineStr"/>
+      <c r="CJ16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -6389,6 +6485,21 @@
           <t>A2603989W</t>
         </is>
       </c>
+      <c r="CH17" t="inlineStr">
+        <is>
+          <t>A130272195C</t>
+        </is>
+      </c>
+      <c r="CI17" t="inlineStr">
+        <is>
+          <t>A130272197J</t>
+        </is>
+      </c>
+      <c r="CJ17" t="inlineStr">
+        <is>
+          <t>A130272199L</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -6814,6 +6925,21 @@
       <c r="CG18" t="inlineStr">
         <is>
           <t>A2603989W</t>
+        </is>
+      </c>
+      <c r="CH18" t="inlineStr">
+        <is>
+          <t>A130272195C</t>
+        </is>
+      </c>
+      <c r="CI18" t="inlineStr">
+        <is>
+          <t>A130272197J</t>
+        </is>
+      </c>
+      <c r="CJ18" t="inlineStr">
+        <is>
+          <t>A130272199L</t>
         </is>
       </c>
     </row>
@@ -6907,6 +7033,9 @@
       <c r="CE19" t="inlineStr"/>
       <c r="CF19" t="inlineStr"/>
       <c r="CG19" t="inlineStr"/>
+      <c r="CH19" t="inlineStr"/>
+      <c r="CI19" t="inlineStr"/>
+      <c r="CJ19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
